--- a/src/main/resources/voucher_template_59.xlsx
+++ b/src/main/resources/voucher_template_59.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MISHU/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Booked by EYOUNZ LTD</t>
   </si>
@@ -102,36 +105,6 @@
   <si>
     <t>CONTACT NO.</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>21446</t>
-  </si>
-  <si>
-    <t>缆车营业时间内往返一次，滑板车3圈，晚餐场次17:45，可提前去等位</t>
-  </si>
-  <si>
-    <t>Brecon Street, Queenstown 9300, New Zealand</t>
-  </si>
-  <si>
-    <t>Skyline Queenstown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +64 3 441 0101</t>
-  </si>
-  <si>
-    <t>Queenstown Skyline Gondola+Dinner+3 Luge 皇后镇Skyline天空缆车+自助晚餐+3圈滑板车</t>
-  </si>
-  <si>
-    <t>2017-07-18(yyyy-MM-dd)</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>SONG QINGCHUAN</t>
-  </si>
-  <si>
-    <t>3 Adult</t>
   </si>
   <si>
     <t>友情提示</t>
@@ -148,14 +121,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1. 当您预订的旅游项目因天气等不可抗力因素而无法参加时，您可以向景点公司提出改期或取消；如果是取消，请您事后及时反馈至我趣旅行，由我趣旅行为您处理并办理相应的退款。
-2. 当您在出发前需要对已经预订的旅游项目做任何修改时，必须经过我趣旅行操作，未经过我趣旅行而做的任何退改，可能会不被承认而导致无效或不退还任何费用。</t>
-    <rPh sb="45" eb="46">
-      <t>ru'guo</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>联系电话： +86 755 36677780</t>
     <rPh sb="0" eb="1">
       <t>lian'xi</t>
@@ -171,6 +136,10 @@
       <t>you'xiang</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 当您预订的旅游项目因天气等不可抗力因素而无法参加时，您可以向景点公司提出改期或取消；如果是取消，请您事后及时反馈至我趣旅行，由我趣旅行为您处理并办理相应的退款。    
+2. 当您在出发前需要对已经预订的旅游项目做任何修改时，必须经过我趣旅行操作，未经过我趣旅行而做的任何退改，可能会不被承认而导致无效或不退还任何费用。    </t>
   </si>
 </sst>
 </file>
@@ -181,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -217,14 +186,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,7 +201,7 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -240,7 +209,7 @@
     <font>
       <sz val="14"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,6 +255,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -304,21 +285,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -737,37 +706,37 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E16" sqref="E16:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -775,15 +744,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -791,15 +758,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -807,15 +772,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -823,15 +786,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -839,15 +800,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -855,15 +814,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -871,15 +828,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -887,15 +842,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -903,15 +856,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -919,15 +870,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -935,32 +884,29 @@
         <v>18</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="2"/>
-      <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection password="CB06" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="E15:I15"/>
@@ -988,7 +934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1001,7 +947,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
